--- a/datasets/Apprehensions/Southwest Border Apprehensions.xlsx
+++ b/datasets/Apprehensions/Southwest Border Apprehensions.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0F9AED-F46D-4D28-AB75-080D476E132A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="13">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -55,11 +56,17 @@
   <si>
     <t>Southwest Border</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="A592" sqref="A592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,592 +399,594 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2018</v>
+        <v>1960</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8045</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2017</v>
+        <v>1960</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6002</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2016</v>
+        <v>1960</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6366</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5031</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2014</v>
+        <v>1960</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4096</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2013</v>
+        <v>1960</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3684</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2012</v>
+        <v>1960</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3964</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2011</v>
+        <v>1960</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4036</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2010</v>
+        <v>1960</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5288</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2009</v>
+        <v>1960</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>6360</v>
+        <v>21022</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2008</v>
+        <v>1961</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5391</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2007</v>
+        <v>1961</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>5536</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2006</v>
+        <v>1961</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>7520</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2005</v>
+        <v>1961</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>10536</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2004</v>
+        <v>1961</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>10530</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2003</v>
+        <v>1961</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>10319</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2002</v>
+        <v>1961</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>11392</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2001</v>
+        <v>1961</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>12087</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2000</v>
+        <v>1961</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>13689</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1999</v>
+        <v>1961</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>14952</v>
+        <v>21745</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1998</v>
+        <v>1962</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>14509</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1997</v>
+        <v>1962</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>12692</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1996</v>
+        <v>1962</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>13214</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1995</v>
+        <v>1962</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>11552</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>13494</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1993</v>
+        <v>1962</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>15486</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1992</v>
+        <v>1962</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>13819</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1991</v>
+        <v>1962</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>8764</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>7180</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1989</v>
+        <v>1962</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>5560</v>
+        <v>21103</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1988</v>
+        <v>1963</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>6209</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1987</v>
+        <v>1963</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>9586</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1986</v>
+        <v>1963</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>23796</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1985</v>
+        <v>1963</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>23667</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1984</v>
+        <v>1963</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>22196</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1983</v>
+        <v>1963</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>20829</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1982</v>
+        <v>1963</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>20268</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1981</v>
+        <v>1963</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>17584</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1980</v>
+        <v>1963</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>15602</v>
+        <v>719</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>20116</v>
+        <v>29644</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1978</v>
+        <v>1964</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>23501</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1977</v>
+        <v>1964</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>22239</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>19846</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>20472</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1974</v>
+        <v>1964</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>23291</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>22378</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>20269</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>22026</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>16770</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>11973</v>
+        <v>32519</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>8834</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>7049</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>6592</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,593 +994,593 @@
         <v>1965</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>3973</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>3146</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>2026</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>1431</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>954</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>732</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2018</v>
+        <v>1965</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>15833</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2017</v>
+        <v>1966</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>13476</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2016</v>
+        <v>1966</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>23078</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2015</v>
+        <v>1966</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>19013</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2014</v>
+        <v>1966</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>24255</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2013</v>
+        <v>1966</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>23510</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2012</v>
+        <v>1966</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>21720</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2011</v>
+        <v>1966</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>16144</v>
+        <v>13362</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2010</v>
+        <v>1966</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>14694</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>17082</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2008</v>
+        <v>1966</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>20761</v>
+        <v>62640</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>22920</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2006</v>
+        <v>1967</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>42636</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2005</v>
+        <v>1967</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>68506</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2004</v>
+        <v>1967</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>53794</v>
+        <v>13656</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2003</v>
+        <v>1967</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>50145</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2002</v>
+        <v>1967</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>66985</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2001</v>
+        <v>1967</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>104875</v>
+        <v>17844</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2000</v>
+        <v>1967</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>157178</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1999</v>
+        <v>1967</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>156653</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>131058</v>
+        <v>73973</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1997</v>
+        <v>1968</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>113280</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1996</v>
+        <v>1968</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
       <c r="C83">
-        <v>121137</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1995</v>
+        <v>1968</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>76490</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1994</v>
+        <v>1968</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>50036</v>
+        <v>19408</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1993</v>
+        <v>1968</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>42289</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1992</v>
+        <v>1968</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>33414</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1991</v>
+        <v>1968</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>38554</v>
+        <v>24116</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1990</v>
+        <v>1968</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>41373</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>46786</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1988</v>
+        <v>1968</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>59403</v>
+        <v>96641</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1987</v>
+        <v>1969</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>64934</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>123952</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1985</v>
+        <v>1969</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>99280</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>87058</v>
+        <v>31159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1983</v>
+        <v>1969</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>83733</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>48753</v>
+        <v>14076</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>50455</v>
+        <v>33311</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1980</v>
+        <v>1969</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>50762</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1979</v>
+        <v>1969</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>50262</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>54098</v>
+        <v>137968</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>42322</v>
+        <v>16770</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
       <c r="C103">
-        <v>32988</v>
+        <v>18711</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>32008</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>44098</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C106">
-        <v>42232</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>31110</v>
+        <v>20708</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>25780</v>
+        <v>50663</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,582 +1588,582 @@
         <v>1970</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>18711</v>
+        <v>14222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>12991</v>
+        <v>13469</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>9576</v>
+        <v>201780</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>7906</v>
+        <v>22026</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
       <c r="C113">
-        <v>6845</v>
+        <v>25780</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1965</v>
+        <v>1971</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>4292</v>
+        <v>14292</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>4489</v>
+        <v>57796</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>4417</v>
+        <v>17665</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>3250</v>
+        <v>28281</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1961</v>
+        <v>1971</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>3458</v>
+        <v>59375</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1960</v>
+        <v>1971</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>3023</v>
+        <v>23548</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2018</v>
+        <v>1971</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>29230</v>
+        <v>15228</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>18633</v>
+        <v>263991</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2016</v>
+        <v>1972</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>19448</v>
+        <v>20269</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2015</v>
+        <v>1972</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>12820</v>
+        <v>31110</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2014</v>
+        <v>1972</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>14511</v>
+        <v>15327</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2013</v>
+        <v>1972</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>16306</v>
+        <v>78168</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C126">
-        <v>23916</v>
+        <v>21781</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2011</v>
+        <v>1972</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>30191</v>
+        <v>29338</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>32562</v>
+        <v>73115</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2009</v>
+        <v>1972</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>33521</v>
+        <v>32272</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2008</v>
+        <v>1972</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C130">
-        <v>40961</v>
+        <v>19946</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C131">
-        <v>55883</v>
+        <v>321326</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2006</v>
+        <v>1973</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>61465</v>
+        <v>22378</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2005</v>
+        <v>1973</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>55722</v>
+        <v>42232</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2004</v>
+        <v>1973</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134">
-        <v>74467</v>
+        <v>23125</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2003</v>
+        <v>1973</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>92099</v>
+        <v>82386</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2002</v>
+        <v>1973</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>108273</v>
+        <v>23854</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2001</v>
+        <v>1973</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>172852</v>
+        <v>37092</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2000</v>
+        <v>1973</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>238126</v>
+        <v>128889</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1999</v>
+        <v>1973</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>225279</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1998</v>
+        <v>1973</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>226695</v>
+        <v>36286</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>146210</v>
+        <v>441066</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1996</v>
+        <v>1974</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>66873</v>
+        <v>23291</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>37317</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1994</v>
+        <v>1974</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>27654</v>
+        <v>26143</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1993</v>
+        <v>1974</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>30058</v>
+        <v>112432</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1992</v>
+        <v>1974</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C146">
-        <v>29852</v>
+        <v>30061</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>30450</v>
+        <v>38668</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>28708</v>
+        <v>196981</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>27524</v>
+        <v>50108</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1988</v>
+        <v>1974</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C150">
-        <v>41179</v>
+        <v>49824</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1987</v>
+        <v>1974</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C151">
-        <v>55291</v>
+        <v>571606</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1986</v>
+        <v>1975</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>95186</v>
+        <v>20472</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>71519</v>
+        <v>32008</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>68563</v>
+        <v>27217</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>71897</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>55440</v>
+        <v>26199</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C157">
-        <v>59774</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C158">
-        <v>57009</v>
+        <v>185499</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>55532</v>
+        <v>39941</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>42118</v>
+        <v>50628</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>38421</v>
+        <v>512264</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,593 +2171,593 @@
         <v>1976</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>32327</v>
+        <v>19846</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>27217</v>
+        <v>32988</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>26143</v>
+        <v>32327</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>23125</v>
+        <v>114886</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>15327</v>
+        <v>24665</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>14292</v>
+        <v>38839</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>12028</v>
+        <v>266709</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>9195</v>
+        <v>34641</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>8358</v>
+        <v>42598</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1967</v>
+        <v>1976</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C171">
-        <v>6974</v>
+        <v>607499</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1966</v>
+        <v>1977</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>6916</v>
+        <v>22239</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1965</v>
+        <v>1977</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>5344</v>
+        <v>42322</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1964</v>
+        <v>1977</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>2640</v>
+        <v>38421</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1963</v>
+        <v>1977</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C175">
-        <v>1690</v>
+        <v>145059</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1962</v>
+        <v>1977</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C176">
-        <v>1426</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1961</v>
+        <v>1977</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>1878</v>
+        <v>38704</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1960</v>
+        <v>1977</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C178">
-        <v>1839</v>
+        <v>337195</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2018</v>
+        <v>1977</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C179">
-        <v>31561</v>
+        <v>33295</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2017</v>
+        <v>1977</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>25193</v>
+        <v>48669</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2016</v>
+        <v>1977</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C181">
-        <v>25634</v>
+        <v>733193</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>2015</v>
+        <v>1978</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>14495</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>2014</v>
+        <v>1978</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>12339</v>
+        <v>54098</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>11154</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>2012</v>
+        <v>1978</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
       <c r="C185">
-        <v>9678</v>
+        <v>174010</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>2011</v>
+        <v>1978</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C186">
-        <v>10345</v>
+        <v>36627</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>12251</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>2009</v>
+        <v>1978</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C188">
-        <v>14999</v>
+        <v>325557</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C189">
-        <v>30312</v>
+        <v>34991</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>2007</v>
+        <v>1978</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C190">
-        <v>75464</v>
+        <v>53338</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>2006</v>
+        <v>1978</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C191">
-        <v>122256</v>
+        <v>789441</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>122679</v>
+        <v>20116</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>2004</v>
+        <v>1979</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>104399</v>
+        <v>50262</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>2003</v>
+        <v>1979</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>88816</v>
+        <v>55532</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>2002</v>
+        <v>1979</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
       </c>
       <c r="C195">
-        <v>94154</v>
+        <v>149722</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C196">
-        <v>112857</v>
+        <v>50666</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>115696</v>
+        <v>41915</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C198">
-        <v>110857</v>
+        <v>337930</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C199">
-        <v>125035</v>
+        <v>37075</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C200">
-        <v>124376</v>
+        <v>52580</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C201">
-        <v>145929</v>
+        <v>795798</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>110971</v>
+        <v>15602</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1994</v>
+        <v>1980</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C203">
-        <v>79688</v>
+        <v>50762</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204">
-        <v>285781</v>
+        <v>57009</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
       </c>
       <c r="C205">
-        <v>248642</v>
+        <v>127488</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C206">
-        <v>211775</v>
+        <v>39167</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>223219</v>
+        <v>35012</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C208">
-        <v>168105</v>
+        <v>285984</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C209">
-        <v>182566</v>
+        <v>33668</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C210">
-        <v>231994</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C211">
-        <v>312892</v>
+        <v>690554</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>240350</v>
+        <v>17584</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>212652</v>
+        <v>50455</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>205944</v>
+        <v>59774</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
       </c>
       <c r="C215">
-        <v>152882</v>
+        <v>146872</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,593 +2765,593 @@
         <v>1981</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>146872</v>
+        <v>36910</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>127488</v>
+        <v>32809</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C218">
-        <v>149722</v>
+        <v>326836</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C219">
-        <v>174010</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C220">
-        <v>145059</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C221">
-        <v>114886</v>
+        <v>749808</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>99000</v>
+        <v>20268</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C223">
-        <v>112432</v>
+        <v>48753</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224">
-        <v>82386</v>
+        <v>55440</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
       </c>
       <c r="C225">
-        <v>78168</v>
+        <v>152882</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C226">
-        <v>57796</v>
+        <v>40385</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1970</v>
+        <v>1982</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>43640</v>
+        <v>32533</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1969</v>
+        <v>1982</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C228">
-        <v>31159</v>
+        <v>314979</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1968</v>
+        <v>1982</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C229">
-        <v>19408</v>
+        <v>32344</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1967</v>
+        <v>1982</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C230">
-        <v>13656</v>
+        <v>48236</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1966</v>
+        <v>1982</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C231">
-        <v>10119</v>
+        <v>745820</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>6355</v>
+        <v>20829</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1964</v>
+        <v>1983</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C233">
-        <v>4486</v>
+        <v>83733</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1963</v>
+        <v>1983</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>3813</v>
+        <v>71897</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1962</v>
+        <v>1983</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
       </c>
       <c r="C235">
-        <v>3304</v>
+        <v>205944</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1961</v>
+        <v>1983</v>
       </c>
       <c r="B236" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C236">
-        <v>3540</v>
+        <v>65279</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1960</v>
+        <v>1983</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>3630</v>
+        <v>57706</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2018</v>
+        <v>1983</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238">
-        <v>32641</v>
+        <v>429121</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>2017</v>
+        <v>1983</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239">
-        <v>25460</v>
+        <v>35870</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>2016</v>
+        <v>1983</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C240">
-        <v>36562</v>
+        <v>63595</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>2015</v>
+        <v>1983</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C241">
-        <v>35888</v>
+        <v>1033974</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>2014</v>
+        <v>1984</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C242">
-        <v>44049</v>
+        <v>22196</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>50749</v>
+        <v>87058</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2012</v>
+        <v>1984</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>44872</v>
+        <v>68563</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>36053</v>
+        <v>212652</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2010</v>
+        <v>1984</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246">
-        <v>35287</v>
+        <v>87059</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2009</v>
+        <v>1984</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247">
-        <v>40569</v>
+        <v>66860</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248">
-        <v>43658</v>
+        <v>407828</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249">
-        <v>56714</v>
+        <v>46283</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>2006</v>
+        <v>1984</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C250">
-        <v>74840</v>
+        <v>59777</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C251">
-        <v>75346</v>
+        <v>1058276</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>74706</v>
+        <v>23667</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2003</v>
+        <v>1985</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C253">
-        <v>70521</v>
+        <v>99280</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C254">
-        <v>82095</v>
+        <v>71519</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>87068</v>
+        <v>240350</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256">
-        <v>108973</v>
+        <v>114931</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257">
-        <v>114004</v>
+        <v>82826</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C258">
-        <v>103433</v>
+        <v>427772</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C259">
-        <v>141893</v>
+        <v>55269</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C260">
-        <v>131841</v>
+        <v>67737</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C261">
-        <v>93305</v>
+        <v>1183351</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>73142</v>
+        <v>23796</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C263">
-        <v>82348</v>
+        <v>123952</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C264">
-        <v>72449</v>
+        <v>95186</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265">
-        <v>72293</v>
+        <v>312892</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266">
-        <v>89052</v>
+        <v>143685</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267">
-        <v>75292</v>
+        <v>121783</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C268">
-        <v>69912</v>
+        <v>629656</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C269">
-        <v>74139</v>
+        <v>71675</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,582 +3359,582 @@
         <v>1986</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C270">
-        <v>143685</v>
+        <v>93219</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C271">
-        <v>114931</v>
+        <v>1615844</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C272">
-        <v>87059</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C273">
-        <v>65279</v>
+        <v>64934</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C274">
-        <v>40385</v>
+        <v>55291</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1981</v>
+        <v>1987</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275">
-        <v>36910</v>
+        <v>231994</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
       </c>
       <c r="C276">
-        <v>39167</v>
+        <v>74139</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>50666</v>
+        <v>71038</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1978</v>
+        <v>1987</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C278">
-        <v>36627</v>
+        <v>500327</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C279">
-        <v>27289</v>
+        <v>47481</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C280">
-        <v>24665</v>
+        <v>67277</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C281">
-        <v>26199</v>
+        <v>1122067</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1974</v>
+        <v>1988</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C282">
-        <v>30061</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1973</v>
+        <v>1988</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C283">
-        <v>23854</v>
+        <v>59403</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1972</v>
+        <v>1988</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C284">
-        <v>21781</v>
+        <v>41179</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1971</v>
+        <v>1988</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>17665</v>
+        <v>182566</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286">
-        <v>11569</v>
+        <v>69912</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1969</v>
+        <v>1988</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C287">
-        <v>8129</v>
+        <v>60294</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1968</v>
+        <v>1988</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C288">
-        <v>5715</v>
+        <v>431592</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1967</v>
+        <v>1988</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C289">
-        <v>4178</v>
+        <v>48683</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1966</v>
+        <v>1988</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C290">
-        <v>3658</v>
+        <v>42723</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1965</v>
+        <v>1988</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C291">
-        <v>2310</v>
+        <v>942561</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1964</v>
+        <v>1989</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C292">
-        <v>2168</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1963</v>
+        <v>1989</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C293">
-        <v>1753</v>
+        <v>46786</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1962</v>
+        <v>1989</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C294">
-        <v>1274</v>
+        <v>27524</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1961</v>
+        <v>1989</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>1172</v>
+        <v>168105</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
       </c>
       <c r="C296">
-        <v>1024</v>
+        <v>75292</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2018</v>
+        <v>1989</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
       </c>
       <c r="C297">
-        <v>162262</v>
+        <v>79650</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>2017</v>
+        <v>1989</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C298">
-        <v>137562</v>
+        <v>366757</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C299">
-        <v>186830</v>
+        <v>51445</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>2015</v>
+        <v>1989</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C300">
-        <v>147257</v>
+        <v>31387</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C301">
-        <v>256393</v>
+        <v>852506</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B302" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C302">
-        <v>154453</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C303">
-        <v>97762</v>
+        <v>41373</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C304">
-        <v>59243</v>
+        <v>28708</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C305">
-        <v>59766</v>
+        <v>223219</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C306">
-        <v>60989</v>
+        <v>89052</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
       <c r="C307">
-        <v>75473</v>
+        <v>97018</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C308">
-        <v>73430</v>
+        <v>473323</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C309">
-        <v>110528</v>
+        <v>53061</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C310">
-        <v>134186</v>
+        <v>36387</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>2004</v>
+        <v>1990</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C311">
-        <v>92947</v>
+        <v>1049321</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C312">
-        <v>77749</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C313">
-        <v>89927</v>
+        <v>38554</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C314">
-        <v>107844</v>
+        <v>30450</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B315" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>133243</v>
+        <v>211775</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C316">
-        <v>169151</v>
+        <v>72293</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
       <c r="C317">
-        <v>204257</v>
+        <v>87319</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C318">
-        <v>243793</v>
+        <v>540347</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B319" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C319">
-        <v>210553</v>
+        <v>59728</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C320">
-        <v>169101</v>
+        <v>28646</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C321">
-        <v>124251</v>
+        <v>1077876</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C322">
-        <v>109048</v>
+        <v>13819</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,593 +3942,593 @@
         <v>1992</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C323">
-        <v>85889</v>
+        <v>33414</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B324" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C324">
-        <v>87319</v>
+        <v>29852</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B325" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C325">
-        <v>97018</v>
+        <v>248642</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C326">
-        <v>79650</v>
+        <v>72449</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
       <c r="C327">
-        <v>60294</v>
+        <v>85889</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C328">
-        <v>71038</v>
+        <v>565581</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="B329" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C329">
-        <v>121783</v>
+        <v>71036</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C330">
-        <v>82826</v>
+        <v>24892</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C331">
-        <v>66860</v>
+        <v>1145574</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>57706</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C333">
-        <v>32533</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1981</v>
+        <v>1993</v>
       </c>
       <c r="B334" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C334">
-        <v>32809</v>
+        <v>30058</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1980</v>
+        <v>1993</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C335">
-        <v>35012</v>
+        <v>285781</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C336">
-        <v>41915</v>
+        <v>82348</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1978</v>
+        <v>1993</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337">
-        <v>45201</v>
+        <v>109048</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1977</v>
+        <v>1993</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C338">
-        <v>38704</v>
+        <v>531689</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1976</v>
+        <v>1993</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C339">
-        <v>38839</v>
+        <v>92639</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1975</v>
+        <v>1993</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C340">
-        <v>31300</v>
+        <v>23548</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1974</v>
+        <v>1993</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C341">
-        <v>38668</v>
+        <v>1212886</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1973</v>
+        <v>1994</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>37092</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1972</v>
+        <v>1994</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C343">
-        <v>29338</v>
+        <v>50036</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1971</v>
+        <v>1994</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C344">
-        <v>28281</v>
+        <v>27654</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1970</v>
+        <v>1994</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>20708</v>
+        <v>79688</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1969</v>
+        <v>1994</v>
       </c>
       <c r="B346" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C346">
-        <v>14076</v>
+        <v>73142</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1968</v>
+        <v>1994</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
       </c>
       <c r="C347">
-        <v>10093</v>
+        <v>124251</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1967</v>
+        <v>1994</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C348">
-        <v>9029</v>
+        <v>450152</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1966</v>
+        <v>1994</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C349">
-        <v>8706</v>
+        <v>139473</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1965</v>
+        <v>1994</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C350">
-        <v>8057</v>
+        <v>21211</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1964</v>
+        <v>1994</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C351">
-        <v>9173</v>
+        <v>979101</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1963</v>
+        <v>1995</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C352">
-        <v>9992</v>
+        <v>11552</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1962</v>
+        <v>1995</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C353">
-        <v>5569</v>
+        <v>76490</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1961</v>
+        <v>1995</v>
       </c>
       <c r="B354" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C354">
-        <v>6713</v>
+        <v>37317</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1960</v>
+        <v>1995</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>5515</v>
+        <v>110971</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="B356" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C356">
-        <v>38591</v>
+        <v>93305</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C357">
-        <v>26086</v>
+        <v>169101</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
       </c>
       <c r="C358">
-        <v>31891</v>
+        <v>524231</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C359">
-        <v>26290</v>
+        <v>227529</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="B360" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C360">
-        <v>29911</v>
+        <v>20894</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="B361" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C361">
-        <v>27496</v>
+        <v>1271390</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C362">
-        <v>28461</v>
+        <v>13214</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="B363" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C363">
-        <v>42447</v>
+        <v>121137</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>2010</v>
+        <v>1996</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C364">
-        <v>68565</v>
+        <v>66873</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C365">
-        <v>118721</v>
+        <v>145929</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C366">
-        <v>162390</v>
+        <v>131841</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C367">
-        <v>152460</v>
+        <v>210553</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="B368" t="s">
         <v>7</v>
       </c>
       <c r="C368">
-        <v>142104</v>
+        <v>483815</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C369">
-        <v>126904</v>
+        <v>305348</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C370">
-        <v>138608</v>
+        <v>28310</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C371">
-        <v>111515</v>
+        <v>1507020</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>100681</v>
+        <v>12692</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C373">
-        <v>110075</v>
+        <v>113280</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C374">
-        <v>151681</v>
+        <v>146210</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C375">
-        <v>182267</v>
+        <v>124376</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C376">
-        <v>248092</v>
+        <v>141893</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,593 +4536,593 @@
         <v>1997</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C377">
-        <v>283889</v>
+        <v>243793</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
       </c>
       <c r="C378">
-        <v>483815</v>
+        <v>283889</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C379">
-        <v>524231</v>
+        <v>272397</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C380">
-        <v>450152</v>
+        <v>30177</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C381">
-        <v>531689</v>
+        <v>1368707</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>565581</v>
+        <v>14509</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C383">
-        <v>540347</v>
+        <v>131058</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C384">
-        <v>473323</v>
+        <v>226695</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C385">
-        <v>366757</v>
+        <v>125035</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C386">
-        <v>431592</v>
+        <v>103433</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387">
-        <v>500327</v>
+        <v>204257</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
       </c>
       <c r="C388">
-        <v>629656</v>
+        <v>248092</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C389">
-        <v>427772</v>
+        <v>387406</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C390">
-        <v>407828</v>
+        <v>76195</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C391">
-        <v>429121</v>
+        <v>1516680</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C392">
-        <v>314979</v>
+        <v>14952</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C393">
-        <v>326836</v>
+        <v>156653</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1980</v>
+        <v>1999</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C394">
-        <v>285984</v>
+        <v>225279</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C395">
-        <v>337930</v>
+        <v>110857</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1978</v>
+        <v>1999</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C396">
-        <v>325557</v>
+        <v>114004</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C397">
-        <v>337195</v>
+        <v>169151</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
       </c>
       <c r="C398">
-        <v>266709</v>
+        <v>182267</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1975</v>
+        <v>1999</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C399">
-        <v>185499</v>
+        <v>470449</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1974</v>
+        <v>1999</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C400">
-        <v>196981</v>
+        <v>93388</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1973</v>
+        <v>1999</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C401">
-        <v>128889</v>
+        <v>1537000</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1972</v>
+        <v>2000</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C402">
-        <v>73115</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1971</v>
+        <v>2000</v>
       </c>
       <c r="B403" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C403">
-        <v>59375</v>
+        <v>157178</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C404">
-        <v>50663</v>
+        <v>238126</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1969</v>
+        <v>2000</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C405">
-        <v>33311</v>
+        <v>115696</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1968</v>
+        <v>2000</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C406">
-        <v>24116</v>
+        <v>108973</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>1967</v>
+        <v>2000</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C407">
-        <v>17844</v>
+        <v>133243</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1966</v>
+        <v>2000</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
       </c>
       <c r="C408">
-        <v>13362</v>
+        <v>151681</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C409">
-        <v>6558</v>
+        <v>616346</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1964</v>
+        <v>2000</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C410">
-        <v>4521</v>
+        <v>108747</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1963</v>
+        <v>2000</v>
       </c>
       <c r="B411" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C411">
-        <v>3768</v>
+        <v>1643679</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1962</v>
+        <v>2001</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C412">
-        <v>3091</v>
+        <v>12087</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1961</v>
+        <v>2001</v>
       </c>
       <c r="B413" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C413">
-        <v>2279</v>
+        <v>104875</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1960</v>
+        <v>2001</v>
       </c>
       <c r="B414" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C414">
-        <v>3371</v>
+        <v>172852</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="B415" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C415">
-        <v>52172</v>
+        <v>112857</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C416">
-        <v>38657</v>
+        <v>87068</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="B417" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C417">
-        <v>64891</v>
+        <v>107844</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="B418" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C418">
-        <v>63397</v>
+        <v>110075</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="B419" t="s">
         <v>8</v>
       </c>
       <c r="C419">
-        <v>87915</v>
+        <v>449675</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="B420" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C420">
-        <v>120939</v>
+        <v>78385</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="B421" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C421">
-        <v>120000</v>
+        <v>1235718</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="B422" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>123285</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B423" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C423">
-        <v>212202</v>
+        <v>66985</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="B424" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C424">
-        <v>241673</v>
+        <v>108273</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="B425" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C425">
-        <v>317696</v>
+        <v>94154</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B426" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C426">
-        <v>378239</v>
+        <v>82095</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B427" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C427">
-        <v>392074</v>
+        <v>89927</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B428" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C428">
-        <v>439079</v>
+        <v>100681</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B429" t="s">
         <v>8</v>
       </c>
       <c r="C429">
-        <v>491771</v>
+        <v>333648</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B430" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C430">
-        <v>347263</v>
+        <v>42654</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,582 +5130,582 @@
         <v>2002</v>
       </c>
       <c r="B431" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C431">
-        <v>333648</v>
+        <v>929809</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B432" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C432">
-        <v>449675</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B433" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C433">
-        <v>616346</v>
+        <v>50145</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="B434" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C434">
-        <v>470449</v>
+        <v>92099</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B435" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C435">
-        <v>387406</v>
+        <v>88816</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B436" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C436">
-        <v>272397</v>
+        <v>70521</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B437" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C437">
-        <v>305348</v>
+        <v>77749</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B438" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C438">
-        <v>227529</v>
+        <v>111515</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
       </c>
       <c r="C439">
-        <v>139473</v>
+        <v>347263</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="B440" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C440">
-        <v>92639</v>
+        <v>56638</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="B441" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C441">
-        <v>71036</v>
+        <v>905065</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="B442" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C442">
-        <v>59728</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>1990</v>
+        <v>2004</v>
       </c>
       <c r="B443" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C443">
-        <v>53061</v>
+        <v>53794</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="B444" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C444">
-        <v>51445</v>
+        <v>74467</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1988</v>
+        <v>2004</v>
       </c>
       <c r="B445" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C445">
-        <v>48683</v>
+        <v>104399</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="B446" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C446">
-        <v>47481</v>
+        <v>74706</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="B447" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C447">
-        <v>71675</v>
+        <v>92947</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1985</v>
+        <v>2004</v>
       </c>
       <c r="B448" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C448">
-        <v>55269</v>
+        <v>138608</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
       </c>
       <c r="C449">
-        <v>46283</v>
+        <v>491771</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1983</v>
+        <v>2004</v>
       </c>
       <c r="B450" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C450">
-        <v>35870</v>
+        <v>98060</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1982</v>
+        <v>2004</v>
       </c>
       <c r="B451" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C451">
-        <v>32344</v>
+        <v>1139282</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="B452" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C452">
-        <v>33085</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1980</v>
+        <v>2005</v>
       </c>
       <c r="B453" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C453">
-        <v>33668</v>
+        <v>68506</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="B454" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C454">
-        <v>37075</v>
+        <v>55722</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1978</v>
+        <v>2005</v>
       </c>
       <c r="B455" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C455">
-        <v>34991</v>
+        <v>122679</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1977</v>
+        <v>2005</v>
       </c>
       <c r="B456" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C456">
-        <v>33295</v>
+        <v>75346</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>1976</v>
+        <v>2005</v>
       </c>
       <c r="B457" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C457">
-        <v>34641</v>
+        <v>134186</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1975</v>
+        <v>2005</v>
       </c>
       <c r="B458" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C458">
-        <v>39941</v>
+        <v>126904</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1974</v>
+        <v>2005</v>
       </c>
       <c r="B459" t="s">
         <v>8</v>
       </c>
       <c r="C459">
-        <v>50108</v>
+        <v>439079</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="B460" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C460">
-        <v>44824</v>
+        <v>138438</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1972</v>
+        <v>2005</v>
       </c>
       <c r="B461" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C461">
-        <v>32272</v>
+        <v>1171396</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1971</v>
+        <v>2006</v>
       </c>
       <c r="B462" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C462">
-        <v>23548</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="B463" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C463">
-        <v>14222</v>
+        <v>42636</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1969</v>
+        <v>2006</v>
       </c>
       <c r="B464" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C464">
-        <v>8301</v>
+        <v>61465</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1968</v>
+        <v>2006</v>
       </c>
       <c r="B465" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C465">
-        <v>4537</v>
+        <v>122256</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1967</v>
+        <v>2006</v>
       </c>
       <c r="B466" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C466">
-        <v>3068</v>
+        <v>74840</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1966</v>
+        <v>2006</v>
       </c>
       <c r="B467" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C467">
-        <v>2392</v>
+        <v>110528</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1965</v>
+        <v>2006</v>
       </c>
       <c r="B468" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C468">
-        <v>1480</v>
+        <v>142104</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1964</v>
+        <v>2006</v>
       </c>
       <c r="B469" t="s">
         <v>8</v>
       </c>
       <c r="C469">
-        <v>1200</v>
+        <v>392074</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1963</v>
+        <v>2006</v>
       </c>
       <c r="B470" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C470">
-        <v>1466</v>
+        <v>118549</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1962</v>
+        <v>2006</v>
       </c>
       <c r="B471" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C471">
-        <v>1247</v>
+        <v>1071972</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1961</v>
+        <v>2007</v>
       </c>
       <c r="B472" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C472">
-        <v>1178</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1960</v>
+        <v>2007</v>
       </c>
       <c r="B473" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C473">
-        <v>1255</v>
+        <v>22920</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="B474" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C474">
-        <v>26244</v>
+        <v>55883</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="B475" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C475">
-        <v>12847</v>
+        <v>75464</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="B476" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C476">
-        <v>14170</v>
+        <v>56714</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B477" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C477">
-        <v>7142</v>
+        <v>73430</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B478" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C478">
-        <v>5902</v>
+        <v>152460</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B479" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C479">
-        <v>6106</v>
+        <v>378239</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B480" t="s">
         <v>9</v>
       </c>
       <c r="C480">
-        <v>6500</v>
+        <v>37992</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B481" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C481">
-        <v>5833</v>
+        <v>858638</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B482" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C482">
-        <v>7116</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B483" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C483">
-        <v>6951</v>
+        <v>20761</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,593 +5713,593 @@
         <v>2008</v>
       </c>
       <c r="B484" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C484">
-        <v>8363</v>
+        <v>40961</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B485" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C485">
-        <v>37992</v>
+        <v>30312</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C486">
-        <v>118549</v>
+        <v>43658</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B487" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C487">
-        <v>138438</v>
+        <v>75473</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B488" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C488">
-        <v>98060</v>
+        <v>162390</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="B489" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C489">
-        <v>56638</v>
+        <v>317696</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B490" t="s">
         <v>9</v>
       </c>
       <c r="C490">
-        <v>42654</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B491" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C491">
-        <v>78385</v>
+        <v>705005</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C492">
-        <v>108747</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="B493" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C493">
-        <v>93388</v>
+        <v>17082</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="B494" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C494">
-        <v>76195</v>
+        <v>33521</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="B495" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C495">
-        <v>30177</v>
+        <v>14999</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="B496" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C496">
-        <v>28310</v>
+        <v>40569</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="B497" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C497">
-        <v>20894</v>
+        <v>60989</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="B498" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C498">
-        <v>21211</v>
+        <v>118721</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="B499" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C499">
-        <v>23548</v>
+        <v>241673</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="B500" t="s">
         <v>9</v>
       </c>
       <c r="C500">
-        <v>24892</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="B501" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C501">
-        <v>28646</v>
+        <v>540865</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B502" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C502">
-        <v>36387</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="B503" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C503">
-        <v>31387</v>
+        <v>14694</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1988</v>
+        <v>2010</v>
       </c>
       <c r="B504" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C504">
-        <v>42723</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1987</v>
+        <v>2010</v>
       </c>
       <c r="B505" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C505">
-        <v>67277</v>
+        <v>12251</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="B506" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C506">
-        <v>93219</v>
+        <v>35287</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="B507" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C507">
-        <v>67737</v>
+        <v>59766</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="B508" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C508">
-        <v>59777</v>
+        <v>68565</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1983</v>
+        <v>2010</v>
       </c>
       <c r="B509" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C509">
-        <v>63595</v>
+        <v>212202</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1982</v>
+        <v>2010</v>
       </c>
       <c r="B510" t="s">
         <v>9</v>
       </c>
       <c r="C510">
-        <v>48236</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C511">
-        <v>45483</v>
+        <v>447731</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="B512" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C512">
-        <v>45862</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="B513" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C513">
-        <v>52580</v>
+        <v>16144</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1978</v>
+        <v>2011</v>
       </c>
       <c r="B514" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C514">
-        <v>53338</v>
+        <v>30191</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1977</v>
+        <v>2011</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C515">
-        <v>48669</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1976</v>
+        <v>2011</v>
       </c>
       <c r="B516" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C516">
-        <v>42598</v>
+        <v>36053</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1975</v>
+        <v>2011</v>
       </c>
       <c r="B517" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C517">
-        <v>50628</v>
+        <v>59243</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1974</v>
+        <v>2011</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C518">
-        <v>49824</v>
+        <v>42447</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1973</v>
+        <v>2011</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C519">
-        <v>36286</v>
+        <v>123285</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1972</v>
+        <v>2011</v>
       </c>
       <c r="B520" t="s">
         <v>9</v>
       </c>
       <c r="C520">
-        <v>19946</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1971</v>
+        <v>2011</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C521">
-        <v>15228</v>
+        <v>327577</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1970</v>
+        <v>2012</v>
       </c>
       <c r="B522" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C522">
-        <v>13469</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1969</v>
+        <v>2012</v>
       </c>
       <c r="B523" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C523">
-        <v>8833</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1968</v>
+        <v>2012</v>
       </c>
       <c r="B524" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C524">
-        <v>6004</v>
+        <v>23916</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1967</v>
+        <v>2012</v>
       </c>
       <c r="B525" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C525">
-        <v>4269</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="B526" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C526">
-        <v>4050</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1965</v>
+        <v>2012</v>
       </c>
       <c r="B527" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C527">
-        <v>1651</v>
+        <v>97762</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1964</v>
+        <v>2012</v>
       </c>
       <c r="B528" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C528">
-        <v>696</v>
+        <v>28461</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1963</v>
+        <v>2012</v>
       </c>
       <c r="B529" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C529">
-        <v>719</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1962</v>
+        <v>2012</v>
       </c>
       <c r="B530" t="s">
         <v>9</v>
       </c>
       <c r="C530">
-        <v>511</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1961</v>
+        <v>2012</v>
       </c>
       <c r="B531" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C531">
-        <v>573</v>
+        <v>356873</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1960</v>
+        <v>2013</v>
       </c>
       <c r="B532" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C532">
-        <v>633</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B533" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C533">
-        <v>396579</v>
+        <v>23510</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B534" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C534">
-        <v>303916</v>
+        <v>16306</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B535" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C535">
-        <v>408870</v>
+        <v>11154</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B536" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C536">
-        <v>331333</v>
+        <v>50749</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B537" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C537">
-        <v>479371</v>
+        <v>154453</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,596 +6307,599 @@
         <v>2013</v>
       </c>
       <c r="B538" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C538">
-        <v>414397</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B539" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C539">
-        <v>356873</v>
+        <v>120939</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B540" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C540">
-        <v>327577</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B541" t="s">
         <v>10</v>
       </c>
       <c r="C541">
-        <v>447731</v>
+        <v>414397</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="B542" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C542">
-        <v>540865</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B543" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C543">
-        <v>705005</v>
+        <v>24255</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B544" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C544">
-        <v>858638</v>
+        <v>14511</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B545" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C545">
-        <v>1071972</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="B546" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C546">
-        <v>1171396</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B547" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C547">
-        <v>1139282</v>
+        <v>256393</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="B548" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C548">
-        <v>905065</v>
+        <v>29911</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="B549" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C549">
-        <v>929809</v>
+        <v>87915</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="B550" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C550">
-        <v>1235718</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="B551" t="s">
         <v>10</v>
       </c>
       <c r="C551">
-        <v>1643679</v>
+        <v>479371</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="B552" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C552">
-        <v>1537000</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="B553" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C553">
-        <v>1516680</v>
+        <v>19013</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="B554" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C554">
-        <v>1368707</v>
+        <v>12820</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="B555" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C555">
-        <v>1507020</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="B556" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C556">
-        <v>1271390</v>
+        <v>35888</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="B557" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C557">
-        <v>979101</v>
+        <v>147257</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1993</v>
+        <v>2015</v>
       </c>
       <c r="B558" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C558">
-        <v>1212886</v>
+        <v>26290</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="B559" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C559">
-        <v>1145574</v>
+        <v>63397</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="B560" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C560">
-        <v>1077876</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="B561" t="s">
         <v>10</v>
       </c>
       <c r="C561">
-        <v>1049321</v>
+        <v>331333</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="B562" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C562">
-        <v>852506</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1988</v>
+        <v>2016</v>
       </c>
       <c r="B563" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C563">
-        <v>942561</v>
+        <v>23078</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1987</v>
+        <v>2016</v>
       </c>
       <c r="B564" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C564">
-        <v>1122067</v>
+        <v>19448</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1986</v>
+        <v>2016</v>
       </c>
       <c r="B565" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C565">
-        <v>1615844</v>
+        <v>25634</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1985</v>
+        <v>2016</v>
       </c>
       <c r="B566" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C566">
-        <v>1183351</v>
+        <v>36562</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1984</v>
+        <v>2016</v>
       </c>
       <c r="B567" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C567">
-        <v>1058276</v>
+        <v>186830</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1983</v>
+        <v>2016</v>
       </c>
       <c r="B568" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C568">
-        <v>1033974</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1982</v>
+        <v>2016</v>
       </c>
       <c r="B569" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C569">
-        <v>745820</v>
+        <v>64891</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1981</v>
+        <v>2016</v>
       </c>
       <c r="B570" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C570">
-        <v>749808</v>
+        <v>14170</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1980</v>
+        <v>2016</v>
       </c>
       <c r="B571" t="s">
         <v>10</v>
       </c>
       <c r="C571">
-        <v>690554</v>
+        <v>408870</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1979</v>
+        <v>2017</v>
       </c>
       <c r="B572" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C572">
-        <v>795798</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>1978</v>
+        <v>2017</v>
       </c>
       <c r="B573" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C573">
-        <v>789441</v>
+        <v>13476</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>1977</v>
+        <v>2017</v>
       </c>
       <c r="B574" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C574">
-        <v>733193</v>
+        <v>18633</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="B575" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C575">
-        <v>607499</v>
+        <v>25193</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1975</v>
+        <v>2017</v>
       </c>
       <c r="B576" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C576">
-        <v>512264</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1974</v>
+        <v>2017</v>
       </c>
       <c r="B577" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C577">
-        <v>571606</v>
+        <v>137562</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1973</v>
+        <v>2017</v>
       </c>
       <c r="B578" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C578">
-        <v>441066</v>
+        <v>26086</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1972</v>
+        <v>2017</v>
       </c>
       <c r="B579" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C579">
-        <v>321326</v>
+        <v>38657</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1971</v>
+        <v>2017</v>
       </c>
       <c r="B580" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C580">
-        <v>263991</v>
+        <v>12847</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1970</v>
+        <v>2017</v>
       </c>
       <c r="B581" t="s">
         <v>10</v>
       </c>
       <c r="C581">
-        <v>201780</v>
+        <v>303916</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1969</v>
+        <v>2018</v>
       </c>
       <c r="B582" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C582">
-        <v>137968</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1968</v>
+        <v>2018</v>
       </c>
       <c r="B583" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C583">
-        <v>96641</v>
+        <v>15833</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1967</v>
+        <v>2018</v>
       </c>
       <c r="B584" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C584">
-        <v>73973</v>
+        <v>29230</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="B585" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C585">
-        <v>62640</v>
+        <v>31561</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>1965</v>
+        <v>2018</v>
       </c>
       <c r="B586" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C586">
-        <v>40020</v>
+        <v>32641</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1964</v>
+        <v>2018</v>
       </c>
       <c r="B587" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C587">
-        <v>32519</v>
+        <v>162262</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1963</v>
+        <v>2018</v>
       </c>
       <c r="B588" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C588">
-        <v>29644</v>
+        <v>38591</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1962</v>
+        <v>2018</v>
       </c>
       <c r="B589" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C589">
-        <v>21103</v>
+        <v>52172</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1961</v>
+        <v>2018</v>
       </c>
       <c r="B590" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C590">
-        <v>21745</v>
+        <v>26244</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1960</v>
+        <v>2018</v>
       </c>
       <c r="B591" t="s">
         <v>10</v>
       </c>
       <c r="C591">
-        <v>21022</v>
+        <v>396579</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C591">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
